--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogha\Desktop\Benchmarking Sorting Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12866CAC-0753-48CA-BB7E-CE73354A2C19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3D434-EFD8-461C-89A1-150BC3E93E06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="8835" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bubble Sort" sheetId="1" r:id="rId1"/>
+    <sheet name="Merge Sort" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Merge Sort'!$A$1:$U$53</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Bubble sort</t>
   </si>
@@ -62,6 +66,9 @@
   <si>
     <t>…</t>
   </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,8 +120,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,17 +135,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -148,6 +180,753 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF1F7E6B-990A-4532-A9B6-E47B92E61BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2209800" y="571500"/>
+          <a:ext cx="333375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71720A70-DE38-4308-BE5A-2AF5B87B0088}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600451" y="571500"/>
+          <a:ext cx="495299" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D9986E-BA9E-4D4A-8E2E-700DD996D831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1314450" y="1152525"/>
+          <a:ext cx="333375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13AB6B83-D04D-4F73-A214-51C7DF8C96F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="1162050"/>
+          <a:ext cx="142875" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86BED2C7-178C-4425-AC2B-319FBCEE7205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3895725" y="1143000"/>
+          <a:ext cx="209551" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A9DE47-E0BE-430F-9F36-7398AF94DDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="1152525"/>
+          <a:ext cx="495299" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5103A009-437D-4D98-9A2D-4210336895C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1514475" y="1762125"/>
+          <a:ext cx="428627" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC54A349-6FBE-4C14-ACE8-FEE158724951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="1733550"/>
+          <a:ext cx="1038225" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2ED61E-F8C9-407E-BFC5-171A668EF363}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1724025"/>
+          <a:ext cx="19050" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDCC49D0-59B3-4C5A-AAC8-0519E8A3A741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4581525" y="1733550"/>
+          <a:ext cx="514351" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45CCF069-CFF6-4A79-9BCF-25DA070D1481}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2352675" y="2295525"/>
+          <a:ext cx="1390650" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F8C710-BFB5-4BD4-A77E-9412F03D194C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="2266950"/>
+          <a:ext cx="1533525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA63ED9-CCAA-4AD5-BD1C-0309A42B8B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3390901" y="2295525"/>
+          <a:ext cx="1209674" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79ADF4E3-6A7D-40D4-86CC-49C48FF5DB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="2295525"/>
+          <a:ext cx="1047750" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,4 +1345,128 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949C2A07-2FB0-473F-9211-B7D21CA6C7E5}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="9">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="52" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Benchmark.xlsx
+++ b/Benchmark.xlsx
@@ -8,28 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogha\Desktop\Benchmarking Sorting Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D3D434-EFD8-461C-89A1-150BC3E93E06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D9FBD0-C9B2-4145-942D-3A34C65E914C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bubble Sort" sheetId="1" r:id="rId1"/>
     <sheet name="Merge Sort" sheetId="2" r:id="rId2"/>
+    <sheet name="Counting Sort" sheetId="3" r:id="rId3"/>
+    <sheet name="Selection Sort" sheetId="4" r:id="rId4"/>
+    <sheet name="Insertion Sort" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Merge Sort'!$A$1:$U$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
   <si>
     <t>Bubble sort</t>
   </si>
@@ -69,6 +78,30 @@
   <si>
     <t>Merge Sort</t>
   </si>
+  <si>
+    <t>Counting Sort</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Key Values</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Selection Sort</t>
+  </si>
+  <si>
+    <t>Step 5</t>
+  </si>
+  <si>
+    <t>Insertion Sort</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +159,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -154,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -165,6 +204,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -180,6 +221,997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Counting Sort'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Counting Sort'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Counting Sort'!$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC53-4663-ADFF-C902AE24ECAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Counting Sort'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Counting Sort'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Counting Sort'!$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC53-4663-ADFF-C902AE24ECAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Counting Sort'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Counting Sort'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Counting Sort'!$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FC53-4663-ADFF-C902AE24ECAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Counting Sort'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Counting Sort'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Counting Sort'!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FC53-4663-ADFF-C902AE24ECAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Counting Sort'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Counting Sort'!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Key Values</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Counting Sort'!$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FC53-4663-ADFF-C902AE24ECAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="286121160"/>
+        <c:axId val="286125096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="286121160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286125096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286125096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286121160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -929,6 +1961,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609D81A8-3BC7-4D22-95C1-C3F15B4C1919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1194,8 +2267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,4 +2542,426 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D66FAF-7E5F-4908-A27F-F6AB8B778FB2}">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF($B$3:$B$13,C15)</f>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:G14" si="0">COUNTIF($B$3:$B$13,D15)</f>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H3:H13">
+    <sortCondition ref="H3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F392C-F986-4ECE-BB4B-FA259D9B5AF2}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1607AAC5-5FA5-4746-90AD-935403259389}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>